--- a/Datasets/Gleichnisse_Napoleon/Data/Gleichnisse_Napoleon_JR.xlsx
+++ b/Datasets/Gleichnisse_Napoleon/Data/Gleichnisse_Napoleon_JR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julerickert/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julerickert/Documents/Akademie_Projekt/Datasets/Gleichnisse_Napoleon/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF9E470B-7FE3-1745-94BE-32625F82E733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E111CE29-071C-6A42-9983-7FB6BAC9E411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16020" xr2:uid="{83D778BB-B2D8-FD4F-A694-2AEDDD4D8C05}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="18000" xr2:uid="{83D778BB-B2D8-FD4F-A694-2AEDDD4D8C05}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="73">
   <si>
     <t>ID</t>
   </si>
@@ -120,6 +120,141 @@
   </si>
   <si>
     <t>Kommentar_Lvl3</t>
+  </si>
+  <si>
+    <t>Gl_Nap</t>
+  </si>
+  <si>
+    <t>Rheinländische Dialekte unter Napoleon (1806-1808)</t>
+  </si>
+  <si>
+    <t>JR</t>
+  </si>
+  <si>
+    <t>Kleve</t>
+  </si>
+  <si>
+    <t>Kleve (alte Kopie)</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Lokal</t>
+  </si>
+  <si>
+    <t>51.7879838</t>
+  </si>
+  <si>
+    <t>6.1295343</t>
+  </si>
+  <si>
+    <t>Wesel (Original)</t>
+  </si>
+  <si>
+    <t>Wesel</t>
+  </si>
+  <si>
+    <t>51.6648017</t>
+  </si>
+  <si>
+    <t>6.6268011</t>
+  </si>
+  <si>
+    <t>Menzelen 'und Umgebung' (alte Kopie)</t>
+  </si>
+  <si>
+    <t>Menzelen und Umgebung</t>
+  </si>
+  <si>
+    <t>Kleinregional</t>
+  </si>
+  <si>
+    <t>6.5297521</t>
+  </si>
+  <si>
+    <t>51.6189330</t>
+  </si>
+  <si>
+    <t>Rheinberg (Original)</t>
+  </si>
+  <si>
+    <t>Rheinberg</t>
+  </si>
+  <si>
+    <t>51.5472346</t>
+  </si>
+  <si>
+    <t>6.5887639</t>
+  </si>
+  <si>
+    <t>Kempen (alte Kopie)</t>
+  </si>
+  <si>
+    <t>Kempen</t>
+  </si>
+  <si>
+    <t>51.3657347</t>
+  </si>
+  <si>
+    <t>6.4186172</t>
+  </si>
+  <si>
+    <t>Krefeld (alte Kopie)</t>
+  </si>
+  <si>
+    <t>Krefeld</t>
+  </si>
+  <si>
+    <t>Sankt Tönis (alte Kopie)</t>
+  </si>
+  <si>
+    <t>Sankt Tönis</t>
+  </si>
+  <si>
+    <t>6.4924449</t>
+  </si>
+  <si>
+    <t>51.3215976</t>
+  </si>
+  <si>
+    <t>Erkelenz (Original)</t>
+  </si>
+  <si>
+    <t>Erkelenz</t>
+  </si>
+  <si>
+    <t>6.3164288</t>
+  </si>
+  <si>
+    <t>51.0781836</t>
+  </si>
+  <si>
+    <t>Neuss (Original)</t>
+  </si>
+  <si>
+    <t>Neuss</t>
+  </si>
+  <si>
+    <t>6.6863653</t>
+  </si>
+  <si>
+    <t>51.2032590</t>
+  </si>
+  <si>
+    <t>Köln</t>
+  </si>
+  <si>
+    <t>Köln (alte Kopie)</t>
+  </si>
+  <si>
+    <t>50.9407158</t>
+  </si>
+  <si>
+    <t>6.9494574</t>
   </si>
 </sst>
 </file>
@@ -151,12 +286,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -180,11 +321,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -499,14 +646,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677BF33D-024D-394D-9965-483490377549}">
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="14" max="21" width="10.83203125" style="4"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -548,28 +698,28 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="2" t="s">
@@ -592,6 +742,386 @@
       </c>
       <c r="AB1" s="3" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2">
+        <v>56</v>
+      </c>
+      <c r="E2">
+        <v>57</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3">
+        <v>57</v>
+      </c>
+      <c r="E3">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>58</v>
+      </c>
+      <c r="E4">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V4" t="s">
+        <v>42</v>
+      </c>
+      <c r="W4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>59</v>
+      </c>
+      <c r="E5">
+        <v>60</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="V5" t="s">
+        <v>47</v>
+      </c>
+      <c r="W5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>60</v>
+      </c>
+      <c r="E6">
+        <v>61</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="V6" t="s">
+        <v>51</v>
+      </c>
+      <c r="W6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>61</v>
+      </c>
+      <c r="E7">
+        <v>63</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="V7" t="s">
+        <v>55</v>
+      </c>
+      <c r="W7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <v>63</v>
+      </c>
+      <c r="E8">
+        <v>63</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="V8" t="s">
+        <v>57</v>
+      </c>
+      <c r="W8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9">
+        <v>63</v>
+      </c>
+      <c r="E9">
+        <v>64</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="V9" t="s">
+        <v>61</v>
+      </c>
+      <c r="W9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>65</v>
+      </c>
+      <c r="E10">
+        <v>66</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="V10" t="s">
+        <v>65</v>
+      </c>
+      <c r="W10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <v>66</v>
+      </c>
+      <c r="E11">
+        <v>67</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="V11" t="s">
+        <v>70</v>
+      </c>
+      <c r="W11" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Datasets/Gleichnisse_Napoleon/Data/Gleichnisse_Napoleon_JR.xlsx
+++ b/Datasets/Gleichnisse_Napoleon/Data/Gleichnisse_Napoleon_JR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julerickert/Documents/Akademie_Projekt/Datasets/Gleichnisse_Napoleon/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E111CE29-071C-6A42-9983-7FB6BAC9E411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E147689-48E5-BF48-A856-7C3D4DA97071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="18000" xr2:uid="{83D778BB-B2D8-FD4F-A694-2AEDDD4D8C05}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16020" xr2:uid="{83D778BB-B2D8-FD4F-A694-2AEDDD4D8C05}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="75">
   <si>
     <t>ID</t>
   </si>
@@ -122,9 +122,6 @@
     <t>Kommentar_Lvl3</t>
   </si>
   <si>
-    <t>Gl_Nap</t>
-  </si>
-  <si>
     <t>Rheinländische Dialekte unter Napoleon (1806-1808)</t>
   </si>
   <si>
@@ -255,6 +252,15 @@
   </si>
   <si>
     <t>6.9494574</t>
+  </si>
+  <si>
+    <t>[gl_nap1]</t>
+  </si>
+  <si>
+    <t>Vergleich</t>
+  </si>
+  <si>
+    <t>j</t>
   </si>
 </sst>
 </file>
@@ -646,11 +652,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677BF33D-024D-394D-9965-483490377549}">
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomLeft" activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -658,7 +664,7 @@
     <col min="14" max="21" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,27 +735,30 @@
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
       </c>
       <c r="D2">
         <v>56</v>
@@ -758,36 +767,39 @@
         <v>57</v>
       </c>
       <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
         <v>30</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
         <v>31</v>
       </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>32</v>
       </c>
-      <c r="W2" t="s">
-        <v>33</v>
+      <c r="X2" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
         <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
       </c>
       <c r="D3">
         <v>57</v>
@@ -796,36 +808,39 @@
         <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="V3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W3" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="X3" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
         <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
       </c>
       <c r="D4">
         <v>58</v>
@@ -834,36 +849,39 @@
         <v>59</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" t="s">
         <v>43</v>
       </c>
-      <c r="L4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="N4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="V4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W4" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
         <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
       </c>
       <c r="D5">
         <v>59</v>
@@ -872,36 +890,39 @@
         <v>60</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O5" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="V5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W5" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="X5" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
         <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
       </c>
       <c r="D6">
         <v>60</v>
@@ -910,36 +931,39 @@
         <v>61</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L6" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="V6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W6" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="X6" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
       </c>
       <c r="D7">
         <v>61</v>
@@ -948,36 +972,39 @@
         <v>63</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" t="s">
         <v>34</v>
       </c>
-      <c r="M7" t="s">
-        <v>35</v>
-      </c>
       <c r="N7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="V7" t="s">
         <v>54</v>
       </c>
-      <c r="V7" t="s">
-        <v>55</v>
-      </c>
       <c r="W7" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="X7" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
         <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
       </c>
       <c r="D8">
         <v>63</v>
@@ -986,36 +1013,39 @@
         <v>63</v>
       </c>
       <c r="J8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="L8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" t="s">
-        <v>35</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="V8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W8" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="X8" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
       </c>
       <c r="D9">
         <v>63</v>
@@ -1024,36 +1054,39 @@
         <v>64</v>
       </c>
       <c r="J9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" t="s">
-        <v>35</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="V9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W9" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="X9" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
       </c>
       <c r="D10">
         <v>65</v>
@@ -1062,36 +1095,39 @@
         <v>66</v>
       </c>
       <c r="J10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O10" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="L10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="V10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W10" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="X10" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
         <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
       </c>
       <c r="D11">
         <v>66</v>
@@ -1100,28 +1136,31 @@
         <v>67</v>
       </c>
       <c r="J11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="V11" t="s">
         <v>69</v>
       </c>
-      <c r="L11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="V11" t="s">
-        <v>70</v>
-      </c>
       <c r="W11" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="X11" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Datasets/Gleichnisse_Napoleon/Data/Gleichnisse_Napoleon_JR.xlsx
+++ b/Datasets/Gleichnisse_Napoleon/Data/Gleichnisse_Napoleon_JR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julerickert/Documents/Akademie_Projekt/Datasets/Gleichnisse_Napoleon/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E147689-48E5-BF48-A856-7C3D4DA97071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37452393-4050-1947-A53E-B07A55B8A03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16020" xr2:uid="{83D778BB-B2D8-FD4F-A694-2AEDDD4D8C05}"/>
   </bookViews>
@@ -654,9 +654,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677BF33D-024D-394D-9965-483490377549}">
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V4" sqref="V4"/>
+      <selection pane="bottomLeft" activeCell="AB2" sqref="AB2:AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -766,9 +766,6 @@
       <c r="E2">
         <v>57</v>
       </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
       <c r="K2" t="s">
         <v>30</v>
       </c>
@@ -792,6 +789,9 @@
       </c>
       <c r="X2" t="s">
         <v>74</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
@@ -807,9 +807,6 @@
       <c r="E3">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
-        <v>29</v>
-      </c>
       <c r="K3" t="s">
         <v>38</v>
       </c>
@@ -833,6 +830,9 @@
       </c>
       <c r="X3" t="s">
         <v>74</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
@@ -848,9 +848,6 @@
       <c r="E4">
         <v>59</v>
       </c>
-      <c r="J4" t="s">
-        <v>29</v>
-      </c>
       <c r="K4" t="s">
         <v>42</v>
       </c>
@@ -874,6 +871,9 @@
       </c>
       <c r="X4" t="s">
         <v>74</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
@@ -889,9 +889,6 @@
       <c r="E5">
         <v>60</v>
       </c>
-      <c r="J5" t="s">
-        <v>29</v>
-      </c>
       <c r="K5" t="s">
         <v>47</v>
       </c>
@@ -915,6 +912,9 @@
       </c>
       <c r="X5" t="s">
         <v>74</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
@@ -930,9 +930,6 @@
       <c r="E6">
         <v>61</v>
       </c>
-      <c r="J6" t="s">
-        <v>29</v>
-      </c>
       <c r="K6" t="s">
         <v>51</v>
       </c>
@@ -956,6 +953,9 @@
       </c>
       <c r="X6" t="s">
         <v>74</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
@@ -971,9 +971,6 @@
       <c r="E7">
         <v>63</v>
       </c>
-      <c r="J7" t="s">
-        <v>29</v>
-      </c>
       <c r="K7" t="s">
         <v>55</v>
       </c>
@@ -997,6 +994,9 @@
       </c>
       <c r="X7" t="s">
         <v>74</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
@@ -1012,9 +1012,6 @@
       <c r="E8">
         <v>63</v>
       </c>
-      <c r="J8" t="s">
-        <v>29</v>
-      </c>
       <c r="K8" t="s">
         <v>57</v>
       </c>
@@ -1038,6 +1035,9 @@
       </c>
       <c r="X8" t="s">
         <v>74</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
@@ -1053,9 +1053,6 @@
       <c r="E9">
         <v>64</v>
       </c>
-      <c r="J9" t="s">
-        <v>29</v>
-      </c>
       <c r="K9" t="s">
         <v>61</v>
       </c>
@@ -1079,6 +1076,9 @@
       </c>
       <c r="X9" t="s">
         <v>74</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
@@ -1094,9 +1094,6 @@
       <c r="E10">
         <v>66</v>
       </c>
-      <c r="J10" t="s">
-        <v>29</v>
-      </c>
       <c r="K10" t="s">
         <v>65</v>
       </c>
@@ -1120,6 +1117,9 @@
       </c>
       <c r="X10" t="s">
         <v>74</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
@@ -1135,9 +1135,6 @@
       <c r="E11">
         <v>67</v>
       </c>
-      <c r="J11" t="s">
-        <v>29</v>
-      </c>
       <c r="K11" t="s">
         <v>68</v>
       </c>
@@ -1161,6 +1158,9 @@
       </c>
       <c r="X11" t="s">
         <v>74</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
